--- a/data/financial_statements/sofp/T.xlsx
+++ b/data/financial_statements/sofp/T.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -134,9 +254,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -189,12 +306,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -491,1543 +605,1582 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN38"/>
+  <dimension ref="A1:AO38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>2423000000</v>
+        <v>3701000000</v>
       </c>
       <c r="C2">
-        <v>4018000000</v>
+        <v>2495000000</v>
       </c>
       <c r="D2">
-        <v>38565000000</v>
+        <v>4102000000</v>
       </c>
       <c r="E2">
-        <v>19223000000</v>
+        <v>38628000000</v>
       </c>
       <c r="F2">
-        <v>21270000000</v>
+        <v>21213000000</v>
       </c>
       <c r="G2">
+        <v>21337000000</v>
+      </c>
+      <c r="H2">
         <v>11869000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>11342000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>9740000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>9758000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>16941000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>9955000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>12130000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>6588000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>8423000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>6516000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>5204000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>8657000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>13523000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>48872000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>50498000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>48499000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>25617000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>14884000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>5788000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>5895000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>7208000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>10008000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>5121000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>6202000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>20956000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>4444000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>8603000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>2458000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>11305000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>3611000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>3339000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>1371000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>4548000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>3875000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
-        <v>11384000000</v>
+        <v>11466000000</v>
       </c>
       <c r="C3">
-        <v>11377000000</v>
+        <v>15951000000</v>
       </c>
       <c r="D3">
-        <v>17218000000</v>
+        <v>15903000000</v>
       </c>
       <c r="E3">
-        <v>12313000000</v>
+        <v>21942000000</v>
       </c>
       <c r="F3">
-        <v>16304000000</v>
+        <v>22378000000</v>
       </c>
       <c r="G3">
+        <v>20390000000</v>
+      </c>
+      <c r="H3">
         <v>15771000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>16971000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>20215000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>19379000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>19127000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>19908000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>22636000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>22921000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>22381000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>23863000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>26472000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>26312000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>25492000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>16290000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>16522000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>15876000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>14997000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>15078000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>16794000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>16855000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>15830000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>16070000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>16532000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>16329000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>13821000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>13592000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>14527000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>13445000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>13001000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>13120000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>12918000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>12444000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>12508000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>12100000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>3123000000</v>
+      </c>
+      <c r="C4">
         <v>3935000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>3241000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>3153000000</v>
       </c>
-      <c r="E4">
-        <v>3325000000</v>
-      </c>
       <c r="F4">
+        <v>3464000000</v>
+      </c>
+      <c r="G4">
         <v>3088000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2810000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>3347000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>3695000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2864000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
         <v>4653000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2465000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>8175000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>7144000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>7189000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>19611000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>17835000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>14893000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>19414000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>19048000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>21241000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>18364000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>19693000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>14973000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>14575000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>17704000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>16278000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>14305000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>12008000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>10757000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>10724000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>11562000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>14347000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>14232000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>13291000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>11770000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>10545000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>13267000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>11254000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>6421000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>6906000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>9645000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>8033000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>6698000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>5187000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>4780000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>2916000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>2381000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>2396000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
-        <v>32295000000</v>
+        <v>33108000000</v>
       </c>
       <c r="C6">
-        <v>34485000000</v>
+        <v>27034000000</v>
       </c>
       <c r="D6">
-        <v>76856000000</v>
+        <v>25711000000</v>
       </c>
       <c r="E6">
-        <v>170768000000</v>
+        <v>71898000000</v>
       </c>
       <c r="F6">
-        <v>57230000000</v>
+        <v>54199000000</v>
       </c>
       <c r="G6">
+        <v>52004000000</v>
+      </c>
+      <c r="H6">
         <v>62869000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>62754000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>52008000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>49971000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>56555000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>52704000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>54761000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>50695000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>47218000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>46472000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>51427000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>53107000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>55286000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>78505000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>79146000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>76357000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>53547000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>45727000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>38369000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>37374000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>36005000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>38001000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>35992000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>34951000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>43163000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>27410000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>33606000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>25835000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>33112000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>24089000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>23196000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>18435000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>21428000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>20372000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
-        <v>127045000000</v>
+        <v>127445000000</v>
       </c>
       <c r="C7">
-        <v>125135000000</v>
+        <v>148827000000</v>
       </c>
       <c r="D7">
-        <v>127159000000</v>
+        <v>146943000000</v>
       </c>
       <c r="E7">
-        <v>121649000000</v>
+        <v>151100000000</v>
       </c>
       <c r="F7">
-        <v>124419000000</v>
+        <v>150084000000</v>
       </c>
       <c r="G7">
+        <v>148760000000</v>
+      </c>
+      <c r="H7">
         <v>123591000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>124607000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>127315000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>128722000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>128945000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>128921000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>130128000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>131316000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>132074000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>132051000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>131473000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>130348000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>129556000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>125124000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>125222000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>126462000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>126184000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>125292000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>124899000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>123922000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>123537000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>123454000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>124450000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>122836000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>114348000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>113198000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>112898000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>115134000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>114360000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>112809000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>110968000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>112424000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>110734000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>109702000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>3964000000</v>
+        <v>3533000000</v>
       </c>
       <c r="C8">
-        <v>4523000000</v>
+        <v>5105000000</v>
       </c>
       <c r="D8">
-        <v>5943000000</v>
+        <v>5736000000</v>
       </c>
       <c r="E8">
-        <v>6168000000</v>
+        <v>7248000000</v>
       </c>
       <c r="F8">
-        <v>8629000000</v>
+        <v>8761000000</v>
       </c>
       <c r="G8">
+        <v>10123000000</v>
+      </c>
+      <c r="H8">
         <v>1853000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1805000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1780000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>2325000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>2302000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>3606000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>3695000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>4137000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>4133000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>6230000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>6245000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>6128000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>8007000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>2623000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>1560000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>1627000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>1615000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>1551000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>1674000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>1679000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>1677000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>1594000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>1606000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>1744000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>288000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>266000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>250000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>166000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>159000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>3613000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>3860000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>3949000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>3888000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>4998000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>197341000000</v>
+      </c>
+      <c r="C9">
         <v>221943000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>221674000000</v>
       </c>
-      <c r="D9">
-        <v>280587000000</v>
-      </c>
       <c r="E9">
-        <v>211961000000</v>
+        <v>292073000000</v>
       </c>
       <c r="F9">
-        <v>280521000000</v>
+        <v>276813000000</v>
       </c>
       <c r="G9">
+        <v>292929000000</v>
+      </c>
+      <c r="H9">
         <v>257600000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>259542000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>267782000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>283183000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>284623000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>285124000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>288513000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>288047000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>291159000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>292385000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>293128000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>295614000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>294649000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>219117000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>219725000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>221087000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>221804000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>221871000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>222067000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>223473000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>224716000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>225086000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>225278000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>226873000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>158227000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>157324000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>136655000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>137167000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>136129000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>135819000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>131485000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>132214000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>129468000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>129491000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>19434000000</v>
+        <v>19612000000</v>
       </c>
       <c r="C10">
-        <v>18808000000</v>
+        <v>21832000000</v>
       </c>
       <c r="D10">
-        <v>62709000000</v>
+        <v>24921000000</v>
       </c>
       <c r="E10">
-        <v>19252000000</v>
+        <v>54294000000</v>
       </c>
       <c r="F10">
-        <v>51967000000</v>
+        <v>60711000000</v>
       </c>
       <c r="G10">
+        <v>42636000000</v>
+      </c>
+      <c r="H10">
         <v>74407000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>73862000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>52162000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>49806000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>50781000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>50991000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>50533000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>50124000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>49680000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>51011000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>49591000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>49673000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>47193000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>20974000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>18444000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>18332000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>17645000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>17462000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>16812000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>16527000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>15873000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>15503000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>15346000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>13585000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>10463000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>9830000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>13425000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>9637000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>9706000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>9010000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>8278000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>7577000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>6575000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>6431000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>347931000000</v>
+      </c>
+      <c r="C11">
         <v>372386000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>370140000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>476398000000.0001</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>359030000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>465536000000.0001</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>457451000000.0001</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>459816000000.0001</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>449039000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>464036000000.0001</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>466651000000.0001</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>468642000000.0001</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>472869000000.0001</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>473624000000.0001</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>477046000000.0001</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>481677000000.0001</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>480437000000.0001</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>481763000000.0001</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>479405000000.0001</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>367838000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>364951000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>367508000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>367248000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>366176000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>365452000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>365601000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>365803000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>365637000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>366680000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>365038000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>283326000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>280618000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>263228000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>262104000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>260354000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>261251000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>254591000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>256164000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>250665000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>250622000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>402853000000</v>
+      </c>
+      <c r="C12">
         <v>426463000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>426433000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>577195000000.0001</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>551622000000.0001</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>547107000000.0001</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>544710000000.0001</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>546985000000.0001</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>525761000000.0001</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>538553000000.0001</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>547898000000.0001</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>545354000000.0001</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>551669000000.0001</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>548796000000.0001</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>546914000000.0001</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>548384000000.0001</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>531864000000.0001</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>534870000000.0001</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>534691000000.0001</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>446343000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>444097000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>443865000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>420795000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>411903000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>403821000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>402975000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>401808000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>403638000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>402672000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>399989000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>326489000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>308028000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>296834000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>287939000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>293466000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>285340000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>277787000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>274599000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>272093000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>270994000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>130000000</v>
+      </c>
+      <c r="C13">
         <v>271000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>619000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1047000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>1245000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1180000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
-        <v>36642000000</v>
+        <v>42644000000</v>
       </c>
       <c r="C14">
-        <v>36659000000</v>
+        <v>33174000000</v>
       </c>
       <c r="D14">
-        <v>46845000000</v>
+        <v>33193000000</v>
       </c>
       <c r="E14">
-        <v>39095000000</v>
+        <v>43151000000</v>
       </c>
       <c r="F14">
-        <v>47926000000</v>
+        <v>27050000000</v>
       </c>
       <c r="G14">
+        <v>41358000000</v>
+      </c>
+      <c r="H14">
         <v>49429000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>48245000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>50051000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>42728000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>41881000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>40771000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>45956000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>43955000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>42082000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>42306000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>43184000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>39375000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>35488000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>31569000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>34470000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>28928000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>26471000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>27120000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>31138000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>28849000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>26746000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>26169000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>30372000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>28280000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>21560000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>20418000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>23592000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>24119000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>22966000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>22234000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>21107000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>20433000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>19438000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>17523000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
-        <v>2013000000</v>
+        <v>2014000000</v>
       </c>
       <c r="C15">
         <v>2013000000</v>
       </c>
       <c r="D15">
+        <v>2013000000</v>
+      </c>
+      <c r="E15">
         <v>2086000000</v>
-      </c>
-      <c r="E15">
-        <v>3749000000</v>
       </c>
       <c r="F15">
         <v>3749000000</v>
@@ -2036,10 +2189,10 @@
         <v>3749000000</v>
       </c>
       <c r="H15">
+        <v>3749000000</v>
+      </c>
+      <c r="I15">
         <v>3829000000</v>
-      </c>
-      <c r="I15">
-        <v>3741000000</v>
       </c>
       <c r="J15">
         <v>3741000000</v>
@@ -2048,1414 +2201,1447 @@
         <v>3741000000</v>
       </c>
       <c r="L15">
+        <v>3741000000</v>
+      </c>
+      <c r="M15">
         <v>3737000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>3781000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>3725000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>3726000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>3722000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>3854000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>3635000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>3630000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>3074000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>3070000000</v>
-      </c>
-      <c r="V15">
-        <v>3008000000</v>
       </c>
       <c r="W15">
         <v>3008000000</v>
       </c>
       <c r="X15">
+        <v>3008000000</v>
+      </c>
+      <c r="Y15">
         <v>3012000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>3008000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>2948000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>2953000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>2955000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>2950000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>2892000000</v>
-      </c>
-      <c r="AE15">
-        <v>2441000000</v>
       </c>
       <c r="AF15">
         <v>2441000000</v>
       </c>
       <c r="AG15">
+        <v>2441000000</v>
+      </c>
+      <c r="AH15">
         <v>2438000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>2385000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>2388000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>2390000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>2404000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>2376000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>2401000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>2440000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>9626000000</v>
+        <v>7467000000</v>
       </c>
       <c r="C16">
-        <v>6210000000</v>
+        <v>13365000000</v>
       </c>
       <c r="D16">
-        <v>27333000000</v>
+        <v>10295000000</v>
       </c>
       <c r="E16">
-        <v>24620000000</v>
+        <v>32074000000</v>
       </c>
       <c r="F16">
-        <v>23755000000</v>
+        <v>29581000000</v>
       </c>
       <c r="G16">
+        <v>28610000000</v>
+      </c>
+      <c r="H16">
         <v>24016000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>19505000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>3470000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>5898000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>15576000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>17067000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>11838000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>11608000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>12772000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>11538000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>10255000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>14905000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>21672000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>29322000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>38374000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>8551000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>10831000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>12681000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>9832000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>7982000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>9528000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>8399000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>7636000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>7535000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>8603000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>8181000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>6056000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>5109000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>10482000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>8301000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>5498000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>7873000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>3256000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>3446000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17">
         <v>1019000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1336000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2548000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>2169000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1212000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>2741000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>2062000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1130000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>1179000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1460000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1889000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1534000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>1262000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>2703000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>3331000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>3384000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>2079000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>2686000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>2773000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>2455000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>2176000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>4591000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>3848000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>2390000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>1091000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>4328000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>3962000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>2784000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>1774000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>1488000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>2065000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>2210000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
-        <v>3705000000</v>
+        <v>3918000000</v>
       </c>
       <c r="C18">
-        <v>3603000000</v>
+        <v>5718000000</v>
       </c>
       <c r="D18">
-        <v>5183000000</v>
+        <v>5701000000</v>
       </c>
       <c r="E18">
-        <v>3966000000</v>
+        <v>7269000000</v>
       </c>
       <c r="F18">
-        <v>4991000000</v>
+        <v>27555000000</v>
       </c>
       <c r="G18">
+        <v>11633000000</v>
+      </c>
+      <c r="H18">
         <v>4932000000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>5029000000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>6176000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>5862000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>5723000000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>5960000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>6124000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>6097000000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>5734000000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>5956000000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>5948000000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>6045000000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>5914000000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>5081000000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>4213000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>4503000000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>4371000000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>4493000000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>4519000000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>4637000000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>4465000000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>4550000000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>4682000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>4640000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>4075000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>4221000000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>4105000000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>4038000000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>3990000000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>4121000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>4212000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>4013000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>4029000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>4167000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>56173000000</v>
+      </c>
+      <c r="C19">
         <v>52257000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>49189000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>82494000000</v>
       </c>
-      <c r="E19">
-        <v>106230000000</v>
-      </c>
       <c r="F19">
+        <v>85588000000</v>
+      </c>
+      <c r="G19">
         <v>81601000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>82126000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>76608000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>63438000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>59565000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>69469000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>69704000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>68911000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>68126000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>66376000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>64652000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>64420000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>65420000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>68593000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>70580000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>81389000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>47693000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>48012000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>50690000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>50576000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>47102000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>46465000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>44528000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>47816000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>47938000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>40527000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>37651000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>37282000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>39979000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>43788000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>39830000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>34995000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>36183000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>31189000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>29786000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
-        <v>123854000000</v>
+        <v>128423000000</v>
       </c>
       <c r="C20">
-        <v>129747000000</v>
+        <v>142595000000</v>
       </c>
       <c r="D20">
-        <v>180225000000</v>
+        <v>148496000000</v>
       </c>
       <c r="E20">
-        <v>151011000000</v>
+        <v>201142000000</v>
       </c>
       <c r="F20">
-        <v>155664000000</v>
+        <v>173985000000</v>
       </c>
       <c r="G20">
+        <v>177174000000</v>
+      </c>
+      <c r="H20">
         <v>155767000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>160694000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>153775000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>152980000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>153388000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>147202000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>151309000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>153568000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>157790000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>163942000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>166250000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>168513000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>168495000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>133724000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>125972000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>154728000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>132824000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>120568000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>113681000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>117239000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>117308000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>122104000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>118515000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>119395000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>105067000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>88272000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>75778000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>70516000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>73570000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>71575000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>69290000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>68350000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>71917000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>70686000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>7260000000</v>
+      </c>
+      <c r="C21">
         <v>6152000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>9775000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>11294000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>12560000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>14158000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>14876000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>14723000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>18276000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>17928000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>18167000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>18324000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>18788000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>22853000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>21210000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>19664000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>19218000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>28981000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>28791000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>30116000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>31775000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>31231000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>31422000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>33404000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>33578000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>33483000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>34023000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>34114000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>34262000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>36396000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>36638000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>37074000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>37079000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>29918000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>30070000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>30029000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>29946000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>42036000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>41994000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>41663000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>57032000000</v>
+      </c>
+      <c r="C22">
         <v>56055000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>55301000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>65963000000</v>
       </c>
-      <c r="E22">
-        <v>53767000000</v>
-      </c>
       <c r="F22">
+        <v>65226000000</v>
+      </c>
+      <c r="G22">
         <v>63405000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>61732000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>61886000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>60472000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>60448000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>58387000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>58491000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>59502000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>57786000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>58713000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>59207000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>57859000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>60495000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>59665000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>45730000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>43207000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>64381000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>61926000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>61100000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>60128000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>59649000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>58216000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>57489000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>56181000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>53044000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>38516000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>38019000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>38436000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>37393000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>36835000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>36448000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>36308000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>30666000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>29400000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>28918000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
-        <v>29426000000</v>
+        <v>28849000000</v>
       </c>
       <c r="C23">
-        <v>28365000000</v>
+        <v>35578000000</v>
       </c>
       <c r="D23">
-        <v>29746000000</v>
+        <v>38140000000</v>
       </c>
       <c r="E23">
-        <v>25243000000</v>
+        <v>41040000000</v>
       </c>
       <c r="F23">
-        <v>29466000000</v>
+        <v>42968000000</v>
       </c>
       <c r="G23">
+        <v>43624000000</v>
+      </c>
+      <c r="H23">
         <v>28726000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>28229000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>28358000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>30520000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>32804000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>34600000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>29421000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>29848000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>28176000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>27715000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>30233000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>26490000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>25017000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>19117000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>19747000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>19723000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>20753000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>21160000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>21748000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>20899000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>21425000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>20998000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>22258000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>20427000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>18240000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>19908000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>17989000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>17014000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>16578000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>16089000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>15766000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>11234000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>11278000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>11603000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>240223000000</v>
+      </c>
+      <c r="C24">
         <v>234228000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>241937000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>308145000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>261537000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>284203000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>282738000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>287298000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>283083000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>283932000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>284976000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>280201000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>280824000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>286343000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>286457000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>288781000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>273560000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>284479000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>281968000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>228687000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>220701000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>270063000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>246925000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>236232000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>229135000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>231270000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>230972000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>234705000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>231216000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>229262000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>198461000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>183273000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>169282000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>154841000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>157053000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>154141000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>151310000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>152286000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>154589000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>152870000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>296396000000</v>
+      </c>
+      <c r="C25">
         <v>286485000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>291126000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>390639000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>367767000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>365804000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>364864000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>363906000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>346521000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>343497000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>354445000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>349905000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>349735000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>354469000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>352833000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>353433000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>337980000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>349899000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>350561000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>299267000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>302090000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>317756000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>294937000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>286922000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>279711000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>278372000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>277437000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>279233000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>279032000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>277200000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>238988000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>220924000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>206564000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>194820000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>200841000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>193971000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>186305000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>188469000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>185778000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>182656000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>123610000000</v>
+      </c>
+      <c r="C26">
         <v>122933000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>122850000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>129637000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>130112000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>130035000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>129941000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>129856000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>130175000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>130139000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>130046000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>129966000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>126279000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>125139000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>125109000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>125174000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>125525000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>125706000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>125960000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>89404000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>89563000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>89527000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>89471000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>89411000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>89604000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>89536000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>89486000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>89414000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>89763000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>89717000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>90977000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>91108000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>91064000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>91057000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>91027000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>91091000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>91021000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>90985000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>90940000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
         <v>7621000000</v>
@@ -3512,7 +3698,7 @@
         <v>7621000000</v>
       </c>
       <c r="T27">
-        <v>6495000000</v>
+        <v>7621000000</v>
       </c>
       <c r="U27">
         <v>6495000000</v>
@@ -3574,756 +3760,774 @@
       <c r="AN27">
         <v>6495000000</v>
       </c>
+      <c r="AO27">
+        <v>6495000000</v>
+      </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>-19415000000</v>
+      </c>
+      <c r="C28">
         <v>6127000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>2128000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>45041000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>42350000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>41091000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>38947000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>41154000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>37457000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>55094000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>56045000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>58534000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>57936000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>59347000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>59389000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>59424000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>58753000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>57624000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>56555000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>55067000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>50500000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>36074000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>36067000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>35175000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>34734000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>35319000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>34950000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>34506000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>33671000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>32627000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>29086000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>28490000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>31081000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>34165000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>33554000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>32402000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>31141000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>26648000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>25212000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>23787000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29">
         <v>130035000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>91032000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>17082000000</v>
+      </c>
+      <c r="C30">
         <v>17148000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>17160000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>16553000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>17280000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>17319000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>17332000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>17342000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>17910000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>17950000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>17945000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>17957000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>13085000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>11195000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>11151000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>11452000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>12059000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>12486000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>12872000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>12432000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>12714000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>12716000000</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>12697000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>12400000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>12659000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>12589000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>12343000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>12163000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>12592000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>12309000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>46793000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>46804000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>47029000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>47037000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>46825000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>46684000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>45619000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>43731000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>41819000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>38568000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
-        <v>139978000000</v>
+        <v>106457000000</v>
       </c>
       <c r="C31">
-        <v>135307000000</v>
+        <v>122406000000</v>
       </c>
       <c r="D31">
-        <v>186556000000</v>
+        <v>117746000000</v>
       </c>
       <c r="E31">
-        <v>183855000000</v>
+        <v>169036000000</v>
       </c>
       <c r="F31">
-        <v>181303000000</v>
+        <v>166332000000</v>
       </c>
       <c r="G31">
+        <v>163771000000</v>
+      </c>
+      <c r="H31">
         <v>179846000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>183079000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>179240000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>195056000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>193453000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>195449000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>201934000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>194327000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>194081000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>194951000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>193884000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>184971000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>184130000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>147076000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>142007000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>126109000000</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>125858000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>124981000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>124110000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>124603000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>124371000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>124405000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>123640000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>122789000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>87501000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>87104000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>90270000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>93119000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>92625000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>91369000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>91482000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>86130000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>86315000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>88338000000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
-        <v>139978000000</v>
+        <v>106457000000</v>
       </c>
       <c r="C32">
-        <v>135307000000</v>
+        <v>122406000000</v>
       </c>
       <c r="D32">
-        <v>186556000000</v>
+        <v>117746000000</v>
       </c>
       <c r="E32">
-        <v>183855000000</v>
+        <v>169036000000</v>
       </c>
       <c r="F32">
-        <v>181303000000</v>
+        <v>166332000000</v>
       </c>
       <c r="G32">
+        <v>163771000000</v>
+      </c>
+      <c r="H32">
         <v>179846000000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>183079000000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>179240000000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>195056000000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>193453000000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>195449000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>201934000000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>194327000000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>194081000000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>194951000000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>193884000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>184971000000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>184130000000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>147076000000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>142007000000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>126109000000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>125858000000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>124981000000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>124110000000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>124603000000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>124371000000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>124405000000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>123640000000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>122789000000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>87501000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>87104000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>90270000000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>93119000000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>92625000000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>91369000000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>91482000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>86130000000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>86315000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>88338000000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>402853000000</v>
+      </c>
+      <c r="C33">
         <v>426463000000</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>426433000000</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>577195000000.0001</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>551622000000.0001</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>547107000000.0001</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>544710000000.0001</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>546985000000.0001</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>525761000000.0001</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>538553000000.0001</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>547898000000.0001</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>545354000000.0001</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>551669000000.0001</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>548796000000.0001</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>546914000000.0001</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>548384000000.0001</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>531864000000.0001</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>534870000000.0001</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>534691000000.0001</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>446343000000</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>444097000000</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>443865000000</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>420795000000</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>411903000000</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>403821000000</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>402975000000</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>401808000000</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>403638000000</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>402672000000</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>399989000000</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>326489000000</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>308028000000</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>296834000000</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>287939000000</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>293466000000</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>285340000000</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>277787000000</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>274599000000</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>272093000000</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>270994000000</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>7128000000</v>
+      </c>
+      <c r="C34">
         <v>7126188000</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>7125910000</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>7158852000</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>7141064000</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>7140093000</v>
-      </c>
-      <c r="G34">
-        <v>7139857000</v>
       </c>
       <c r="H34">
         <v>7139857000</v>
       </c>
       <c r="I34">
+        <v>7139857000</v>
+      </c>
+      <c r="J34">
         <v>7125922000</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>7125046000</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>7125323000</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>7125216000</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>7254555000</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>7303374000</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>7305029000</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>7297225000</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>7281629000</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>7270283000</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>7259755000</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>6495231000</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>6139425000</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>6139334000</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>6139782000</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>6147490000</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>6138994000</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>6140763000</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>6151834000</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>6156224000</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>6144940000</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>6152241000</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>5193315000</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>5193054000</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>5186913000</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>5185005000</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>5190821000</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>5194594000</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>5226316000</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>5280243000</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>5335232000</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>5422806000</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>138000</v>
+    <row r="35" spans="1:41">
+      <c r="A35" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="C35">
         <v>138000</v>
@@ -4334,364 +4538,370 @@
       <c r="E35">
         <v>138000</v>
       </c>
-      <c r="I35">
+      <c r="F35">
         <v>138000</v>
       </c>
-      <c r="K35">
+      <c r="J35">
         <v>138000</v>
       </c>
       <c r="L35">
         <v>138000</v>
       </c>
       <c r="M35">
+        <v>138000</v>
+      </c>
+      <c r="N35">
         <v>48000</v>
       </c>
     </row>
-    <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+    <row r="36" spans="1:41">
+      <c r="A36" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B36">
+        <v>-90884000000</v>
+      </c>
+      <c r="C36">
         <v>-81965000000</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>-86367000000</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>-94031000000</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-28106000000</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>-99218000000</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>-77754000000</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>-76463000000</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>-88542000000</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>-88127000000</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>-91170000000</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>-89675000000</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>-86579000000</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>-93720000000</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>-97078000000</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>-97434000000</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>-99244000000</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>-110643000000</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>-110519000000</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>-72041000000</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>-77718000000</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>-94978000000</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>-95946000000</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>-96890000000</v>
       </c>
-      <c r="Y36">
+      <c r="Z36">
         <v>-97957000000</v>
       </c>
-      <c r="Z36">
+      <c r="AA36">
         <v>-98870000000</v>
       </c>
-      <c r="AA36">
+      <c r="AB36">
         <v>-100345000000</v>
       </c>
-      <c r="AB36">
+      <c r="AC36">
         <v>-100681000000</v>
       </c>
-      <c r="AC36">
+      <c r="AD36">
         <v>-101638000000</v>
       </c>
-      <c r="AD36">
+      <c r="AE36">
         <v>-104084000000</v>
       </c>
-      <c r="AE36">
+      <c r="AF36">
         <v>-70726000000</v>
       </c>
-      <c r="AF36">
+      <c r="AG36">
         <v>-70220000000</v>
       </c>
-      <c r="AG36">
+      <c r="AH36">
         <v>-46385000000</v>
       </c>
-      <c r="AH36">
+      <c r="AI36">
         <v>-44048000000</v>
       </c>
-      <c r="AI36">
+      <c r="AJ36">
         <v>-43504000000</v>
       </c>
-      <c r="AJ36">
+      <c r="AK36">
         <v>-44450000000</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <v>-40003000000</v>
       </c>
-      <c r="AL36">
+      <c r="AM36">
         <v>-46084000000</v>
       </c>
-      <c r="AM36">
+      <c r="AN36">
         <v>-43153000000</v>
       </c>
-      <c r="AN36">
+      <c r="AO36">
         <v>-41153000000</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37">
+    <row r="37" spans="1:41">
+      <c r="A37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37">
         <v>182353000000</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>184447000000</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>193145000000</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>194152000000</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>173206000000</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>149120000000</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>152023000000</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>154314000000</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>151017000000</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>158588000000</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>162139000000</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>168964000000</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>171301000000</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>174761000000</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>176644000000</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>114174000000</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>113848000000</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>114780000000</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>118038000000</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>118365000000</v>
       </c>
-      <c r="Y37">
+      <c r="Z37">
         <v>117725000000</v>
       </c>
-      <c r="Z37">
+      <c r="AA37">
         <v>119326000000</v>
       </c>
-      <c r="AA37">
+      <c r="AB37">
         <v>119628000000</v>
       </c>
-      <c r="AB37">
+      <c r="AC37">
         <v>120495000000</v>
       </c>
-      <c r="AC37">
+      <c r="AD37">
         <v>121030000000</v>
       </c>
-      <c r="AD37">
+      <c r="AE37">
         <v>120728000000</v>
       </c>
-      <c r="AE37">
+      <c r="AF37">
         <v>92714000000</v>
       </c>
-      <c r="AF37">
+      <c r="AG37">
         <v>92009000000</v>
       </c>
-      <c r="AG37">
+      <c r="AH37">
         <v>73231000000</v>
       </c>
-      <c r="AH37">
+      <c r="AI37">
         <v>73167000000</v>
       </c>
-      <c r="AI37">
+      <c r="AJ37">
         <v>72747000000</v>
       </c>
-      <c r="AJ37">
+      <c r="AK37">
         <v>76265000000</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <v>71449000000</v>
       </c>
-      <c r="AL37">
+      <c r="AM37">
         <v>74852000000</v>
       </c>
-      <c r="AM37">
+      <c r="AN37">
         <v>70625000000</v>
       </c>
-      <c r="AN37">
+      <c r="AO37">
         <v>70257000000</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38">
+    <row r="38" spans="1:41">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38">
         <v>203566000000</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>205784000000</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>205071000000</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>205529000000</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>182984000000</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>158878000000</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>168964000000</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>164269000000</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>163147000000</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>165176000000</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>170562000000</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>175480000000</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>176505000000</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>183418000000</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>190167000000</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>163046000000</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>164346000000</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>163279000000</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>143655000000</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>133249000000</v>
       </c>
-      <c r="Y38">
+      <c r="Z38">
         <v>123513000000</v>
       </c>
-      <c r="Z38">
+      <c r="AA38">
         <v>125221000000</v>
       </c>
-      <c r="AA38">
+      <c r="AB38">
         <v>126836000000</v>
       </c>
-      <c r="AB38">
+      <c r="AC38">
         <v>130503000000</v>
       </c>
-      <c r="AC38">
+      <c r="AD38">
         <v>126151000000</v>
       </c>
-      <c r="AD38">
+      <c r="AE38">
         <v>126930000000</v>
       </c>
-      <c r="AE38">
+      <c r="AF38">
         <v>113670000000</v>
       </c>
-      <c r="AF38">
+      <c r="AG38">
         <v>96453000000</v>
       </c>
-      <c r="AG38">
+      <c r="AH38">
         <v>81834000000</v>
       </c>
-      <c r="AH38">
+      <c r="AI38">
         <v>75625000000</v>
       </c>
-      <c r="AI38">
+      <c r="AJ38">
         <v>84052000000</v>
       </c>
-      <c r="AJ38">
+      <c r="AK38">
         <v>79876000000</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <v>74788000000</v>
       </c>
-      <c r="AL38">
+      <c r="AM38">
         <v>76223000000</v>
       </c>
-      <c r="AM38">
+      <c r="AN38">
         <v>75173000000</v>
       </c>
-      <c r="AN38">
+      <c r="AO38">
         <v>74132000000</v>
       </c>
     </row>
